--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>8.038446</v>
+        <v>4.536281</v>
       </c>
       <c r="N2">
-        <v>24.115338</v>
+        <v>13.608843</v>
       </c>
       <c r="O2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="P2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
       <c r="Q2">
-        <v>1638.087907213108</v>
+        <v>376.455440554361</v>
       </c>
       <c r="R2">
-        <v>14742.79116491797</v>
+        <v>3388.098964989249</v>
       </c>
       <c r="S2">
-        <v>0.08156239528861063</v>
+        <v>0.03273788687799699</v>
       </c>
       <c r="T2">
-        <v>0.08156239528861065</v>
+        <v>0.032737886877997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>133.523708</v>
       </c>
       <c r="O3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="P3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
       <c r="Q3">
-        <v>9069.894496235305</v>
+        <v>3693.607628480383</v>
       </c>
       <c r="R3">
-        <v>81629.05046611775</v>
+        <v>33242.46865632344</v>
       </c>
       <c r="S3">
-        <v>0.4516011118026635</v>
+        <v>0.321209087946323</v>
       </c>
       <c r="T3">
-        <v>0.4516011118026636</v>
+        <v>0.321209087946323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>39.492068</v>
       </c>
       <c r="O4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="P4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="Q4">
-        <v>2682.586452723066</v>
+        <v>1092.451713738103</v>
       </c>
       <c r="R4">
-        <v>24143.27807450759</v>
+        <v>9832.065423642925</v>
       </c>
       <c r="S4">
-        <v>0.1335692521075462</v>
+        <v>0.09500343671847526</v>
       </c>
       <c r="T4">
-        <v>0.1335692521075462</v>
+        <v>0.09500343671847526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>8.038446</v>
+        <v>4.536281</v>
       </c>
       <c r="N5">
-        <v>24.115338</v>
+        <v>13.608843</v>
       </c>
       <c r="O5">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="P5">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
       <c r="Q5">
-        <v>507.5522177641761</v>
+        <v>286.4234557216026</v>
       </c>
       <c r="R5">
-        <v>4567.969959877584</v>
+        <v>2577.811101494424</v>
       </c>
       <c r="S5">
-        <v>0.02527164411177545</v>
+        <v>0.02490838936690772</v>
       </c>
       <c r="T5">
-        <v>0.02527164411177545</v>
+        <v>0.02490838936690773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>133.523708</v>
       </c>
       <c r="O6">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="P6">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
       <c r="Q6">
         <v>2810.255204363972</v>
       </c>
       <c r="R6">
-        <v>25292.29683927575</v>
+        <v>25292.29683927574</v>
       </c>
       <c r="S6">
-        <v>0.1399260350014843</v>
+        <v>0.2443896596189178</v>
       </c>
       <c r="T6">
-        <v>0.1399260350014843</v>
+        <v>0.2443896596189178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>39.492068</v>
       </c>
       <c r="O7">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="P7">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="Q7">
         <v>831.1841491706916</v>
@@ -880,10 +880,10 @@
         <v>7480.657342536224</v>
       </c>
       <c r="S7">
-        <v>0.04138567279189848</v>
+        <v>0.07228269197083079</v>
       </c>
       <c r="T7">
-        <v>0.04138567279189847</v>
+        <v>0.0722826919708308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>8.038446</v>
+        <v>4.536281</v>
       </c>
       <c r="N8">
-        <v>24.115338</v>
+        <v>13.608843</v>
       </c>
       <c r="O8">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="P8">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
       <c r="Q8">
-        <v>311.248162890132</v>
+        <v>175.644537215702</v>
       </c>
       <c r="R8">
-        <v>2801.233466011188</v>
+        <v>1580.800834941318</v>
       </c>
       <c r="S8">
-        <v>0.01549742573809025</v>
+        <v>0.01527466565933569</v>
       </c>
       <c r="T8">
-        <v>0.01549742573809025</v>
+        <v>0.01527466565933569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>133.523708</v>
       </c>
       <c r="O9">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="P9">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
       <c r="Q9">
-        <v>1723.343409794978</v>
+        <v>1723.343409794979</v>
       </c>
       <c r="R9">
         <v>15510.09068815481</v>
       </c>
       <c r="S9">
-        <v>0.0858073707697751</v>
+        <v>0.1498679937225204</v>
       </c>
       <c r="T9">
-        <v>0.0858073707697751</v>
+        <v>0.1498679937225204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>39.492068</v>
       </c>
       <c r="O10">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="P10">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="Q10">
-        <v>509.7101941400186</v>
+        <v>509.7101941400188</v>
       </c>
       <c r="R10">
-        <v>4587.391747260167</v>
+        <v>4587.391747260169</v>
       </c>
       <c r="S10">
-        <v>0.02537909238815604</v>
+        <v>0.04432618811869237</v>
       </c>
       <c r="T10">
-        <v>0.02537909238815604</v>
+        <v>0.04432618811869238</v>
       </c>
     </row>
   </sheetData>
